--- a/framework/inputs/templates/_worktray_template.xlsx
+++ b/framework/inputs/templates/_worktray_template.xlsx
@@ -1,73 +1,96 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="183" documentId="11_94F083CFD5C304E13DCFCC97D8D73B5EE4F0B289" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F27ADFA-3EC7-460C-A2D7-7A258707EFFB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="3" r:id="rId1"/>
     <sheet name="_internal" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$H$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+  <si>
+    <t>environments</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>bcc</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>TRUE</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>path_download</t>
+  </si>
+  <si>
+    <t>upload_gdrive</t>
+  </si>
+  <si>
+    <t>0942107936</t>
+  </si>
+  <si>
+    <t>0984295800</t>
+  </si>
+  <si>
+    <t>76841631665594</t>
+  </si>
+  <si>
+    <t>3991031291095</t>
+  </si>
+  <si>
+    <t>downloaded</t>
+  </si>
+  <si>
+    <t>id_file</t>
+  </si>
   <si>
     <t>observation</t>
   </si>
   <si>
-    <t>environments</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>cc</t>
-  </si>
-  <si>
-    <t>bcc</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>TRUE</t>
-  </si>
-  <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>processing_date</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>outcome_state_1</t>
-  </si>
-  <si>
-    <t>outcome_state_2</t>
+    <t>filter_file</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,23 +133,61 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -147,16 +208,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
@@ -171,30 +222,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="B2:B5" totalsRowShown="0">
-  <autoFilter ref="B2:B5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="B2:B5" totalsRowShown="0">
+  <autoFilter ref="B2:B5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="environments"/>
+    <tableColumn id="1" name="environments"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="D2:D5" totalsRowShown="0">
-  <autoFilter ref="D2:D5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="D2:D5" totalsRowShown="0">
+  <autoFilter ref="D2:D5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="type"/>
+    <tableColumn id="1" name="type"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D44A276C-F24D-458A-944C-7B63C30F2CCE}" name="Table44" displayName="Table44" ref="F2:F5" totalsRowShown="0">
-  <autoFilter ref="F2:F5" xr:uid="{D44A276C-F24D-458A-944C-7B63C30F2CCE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table44" displayName="Table44" ref="F2:F5" totalsRowShown="0">
+  <autoFilter ref="F2:F5"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{9C5D4945-145A-47E4-9439-DB50B260D6F6}" name="boolean"/>
+    <tableColumn id="1" name="boolean"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -469,47 +520,94 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47632098-06DE-4DAF-9AA4-6FBF7BC36DB8}">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" customWidth="1"/>
-    <col min="3" max="3" width="21" customWidth="1"/>
-    <col min="4" max="5" width="17" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.75" style="6" customWidth="1"/>
+    <col min="8" max="8" width="29.75" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="15">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="6">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="6">
+        <v>123456</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{47632098-06DE-4DAF-9AA4-6FBF7BC36DB8}"/>
-  <conditionalFormatting sqref="D1:Z1048576">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="PENDING">
-      <formula>NOT(ISERROR(SEARCH("PENDING",D1)))</formula>
+  <autoFilter ref="A1:H3"/>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="FALSE">
-      <formula>NOT(ISERROR(SEARCH("FALSE",D1)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",D1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="TRUE">
-      <formula>NOT(ISERROR(SEARCH("TRUE",D1)))</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="true">
+      <formula>NOT(ISERROR(SEARCH("true",G1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="false">
+      <formula>NOT(ISERROR(SEARCH("false",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -517,58 +615,58 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6">
       <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6">
       <c r="B3">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6">
       <c r="B4">
         <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6">
       <c r="B5">
         <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -591,12 +689,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001577117E66FD52428EA7500518132BA0" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="db4255d9eb423baafe0f1cff170ed262">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2dcc9513-fcaa-4a96-ba30-c35eb5e0421b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a92cc9c30552e3f0c57a62f6627eb7f" ns2:_="">
     <xsd:import namespace="2dcc9513-fcaa-4a96-ba30-c35eb5e0421b"/>
@@ -780,6 +872,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1650C86-818B-4C5F-85BF-D8BB24902BFD}">
   <ds:schemaRefs>
@@ -789,15 +887,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E76BC6-FD13-4E9A-B822-542E612CA8CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AB97A12-4E33-4432-BD5A-92AE73377FC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -813,4 +902,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E76BC6-FD13-4E9A-B822-542E612CA8CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/framework/inputs/templates/_worktray_template.xlsx
+++ b/framework/inputs/templates/_worktray_template.xlsx
@@ -11,14 +11,14 @@
     <sheet name="_internal" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$H$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$I$3</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>environments</t>
   </si>
@@ -74,13 +74,16 @@
     <t>downloaded</t>
   </si>
   <si>
-    <t>id_file</t>
-  </si>
-  <si>
     <t>observation</t>
   </si>
   <si>
-    <t>filter_file</t>
+    <t>filtered</t>
+  </si>
+  <si>
+    <t>filter_file_path</t>
+  </si>
+  <si>
+    <t>access_url</t>
   </si>
 </sst>
 </file>
@@ -521,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -534,14 +537,15 @@
     <col min="3" max="3" width="11.5" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.75" style="6" customWidth="1"/>
-    <col min="8" max="8" width="29.75" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
+    <col min="6" max="6" width="9.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="16" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15">
+    <row r="1" spans="1:10" ht="15">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -558,19 +562,22 @@
         <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -581,7 +588,7 @@
         <v>123456</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="7" t="s">
         <v>16</v>
       </c>
@@ -593,7 +600,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H3"/>
+  <autoFilter ref="A1:I3"/>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="false">
       <formula>NOT(ISERROR(SEARCH("false",D1)))</formula>
@@ -602,12 +609,12 @@
       <formula>NOT(ISERROR(SEARCH("true",D1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G1:G1048576">
+  <conditionalFormatting sqref="H1:H1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="true">
-      <formula>NOT(ISERROR(SEARCH("true",G1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("true",H1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="false">
-      <formula>NOT(ISERROR(SEARCH("false",G1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("false",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -689,6 +696,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001577117E66FD52428EA7500518132BA0" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="db4255d9eb423baafe0f1cff170ed262">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2dcc9513-fcaa-4a96-ba30-c35eb5e0421b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3a92cc9c30552e3f0c57a62f6627eb7f" ns2:_="">
     <xsd:import namespace="2dcc9513-fcaa-4a96-ba30-c35eb5e0421b"/>
@@ -872,12 +885,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1650C86-818B-4C5F-85BF-D8BB24902BFD}">
   <ds:schemaRefs>
@@ -887,6 +894,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E76BC6-FD13-4E9A-B822-542E612CA8CB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AB97A12-4E33-4432-BD5A-92AE73377FC8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -902,13 +918,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{79E76BC6-FD13-4E9A-B822-542E612CA8CB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>